--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H2">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I2">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J2">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.7505089514416</v>
+        <v>1.019373</v>
       </c>
       <c r="N2">
-        <v>17.7505089514416</v>
+        <v>3.058119</v>
       </c>
       <c r="O2">
-        <v>0.189057382653236</v>
+        <v>0.01009348738795297</v>
       </c>
       <c r="P2">
-        <v>0.189057382653236</v>
+        <v>0.0101078227719427</v>
       </c>
       <c r="Q2">
-        <v>34.47181933346116</v>
+        <v>2.070127737596</v>
       </c>
       <c r="R2">
-        <v>34.47181933346116</v>
+        <v>18.631149638364</v>
       </c>
       <c r="S2">
-        <v>0.005342138124655069</v>
+        <v>0.0002794299615631504</v>
       </c>
       <c r="T2">
-        <v>0.005342138124655069</v>
+        <v>0.0003270584447987696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H3">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I3">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J3">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.8251996305674</v>
+        <v>18.61380533333333</v>
       </c>
       <c r="N3">
-        <v>33.8251996305674</v>
+        <v>55.841416</v>
       </c>
       <c r="O3">
-        <v>0.3602659353245709</v>
+        <v>0.1843076178923826</v>
       </c>
       <c r="P3">
-        <v>0.3602659353245709</v>
+        <v>0.1845693827684028</v>
       </c>
       <c r="Q3">
-        <v>65.68916833725375</v>
+        <v>37.80064286845511</v>
       </c>
       <c r="R3">
-        <v>65.68916833725375</v>
+        <v>340.205785816096</v>
       </c>
       <c r="S3">
-        <v>0.0101799271792625</v>
+        <v>0.005102405997448722</v>
       </c>
       <c r="T3">
-        <v>0.0101799271792625</v>
+        <v>0.005972104640898908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H4">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I4">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J4">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.3138222172146</v>
+        <v>38.59874866666667</v>
       </c>
       <c r="N4">
-        <v>42.3138222172146</v>
+        <v>115.796246</v>
       </c>
       <c r="O4">
-        <v>0.4506766820221931</v>
+        <v>0.3821917814752466</v>
       </c>
       <c r="P4">
-        <v>0.4506766820221931</v>
+        <v>0.3827345934622813</v>
       </c>
       <c r="Q4">
-        <v>82.17423166683649</v>
+        <v>78.38577267728621</v>
       </c>
       <c r="R4">
-        <v>82.17423166683649</v>
+        <v>705.4719540955759</v>
       </c>
       <c r="S4">
-        <v>0.01273463670730977</v>
+        <v>0.0105806675832226</v>
       </c>
       <c r="T4">
-        <v>0.01273463670730977</v>
+        <v>0.01238412897938103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.7404231455547</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H5">
-        <v>35.7404231455547</v>
+        <v>6.092356</v>
       </c>
       <c r="I5">
-        <v>0.5200292435026971</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J5">
-        <v>0.5200292435026971</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7505089514416</v>
+        <v>42.331515</v>
       </c>
       <c r="N5">
-        <v>17.7505089514416</v>
+        <v>126.994545</v>
       </c>
       <c r="O5">
-        <v>0.189057382653236</v>
+        <v>0.4191523738272861</v>
       </c>
       <c r="P5">
-        <v>0.189057382653236</v>
+        <v>0.4197476794930156</v>
       </c>
       <c r="Q5">
-        <v>634.4107009734793</v>
+        <v>85.96621979978001</v>
       </c>
       <c r="R5">
-        <v>634.4107009734793</v>
+        <v>773.6959781980199</v>
       </c>
       <c r="S5">
-        <v>0.09831536767976222</v>
+        <v>0.01160389142086353</v>
       </c>
       <c r="T5">
-        <v>0.09831536767976222</v>
+        <v>0.01358176002491314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.7404231455547</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H6">
-        <v>35.7404231455547</v>
+        <v>6.092356</v>
       </c>
       <c r="I6">
-        <v>0.5200292435026971</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J6">
-        <v>0.5200292435026971</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>33.8251996305674</v>
+        <v>0.4296995</v>
       </c>
       <c r="N6">
-        <v>33.8251996305674</v>
+        <v>0.859399</v>
       </c>
       <c r="O6">
-        <v>0.3602659353245709</v>
+        <v>0.004254739417131607</v>
       </c>
       <c r="P6">
-        <v>0.3602659353245709</v>
+        <v>0.002840521504357672</v>
       </c>
       <c r="Q6">
-        <v>1208.926947779339</v>
+        <v>0.8726274423406667</v>
       </c>
       <c r="R6">
-        <v>1208.926947779339</v>
+        <v>5.235764654044</v>
       </c>
       <c r="S6">
-        <v>0.1873488218066282</v>
+        <v>0.0001177889886907981</v>
       </c>
       <c r="T6">
-        <v>0.1873488218066282</v>
+        <v>9.191064847431304E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H7">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I7">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J7">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>42.3138222172146</v>
+        <v>1.019373</v>
       </c>
       <c r="N7">
-        <v>42.3138222172146</v>
+        <v>3.058119</v>
       </c>
       <c r="O7">
-        <v>0.4506766820221931</v>
+        <v>0.01009348738795297</v>
       </c>
       <c r="P7">
-        <v>0.4506766820221931</v>
+        <v>0.0101078227719427</v>
       </c>
       <c r="Q7">
-        <v>1512.313910949023</v>
+        <v>40.25893819214301</v>
       </c>
       <c r="R7">
-        <v>1512.313910949023</v>
+        <v>362.330443729287</v>
       </c>
       <c r="S7">
-        <v>0.2343650540163067</v>
+        <v>0.005434231592233848</v>
       </c>
       <c r="T7">
-        <v>0.2343650540163067</v>
+        <v>0.006360489488278002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.0452761067518</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H8">
-        <v>31.0452761067518</v>
+        <v>118.481473</v>
       </c>
       <c r="I8">
-        <v>0.4517140544860756</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J8">
-        <v>0.4517140544860756</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.7505089514416</v>
+        <v>18.61380533333333</v>
       </c>
       <c r="N8">
-        <v>17.7505089514416</v>
+        <v>55.841416</v>
       </c>
       <c r="O8">
-        <v>0.189057382653236</v>
+        <v>0.1843076178923826</v>
       </c>
       <c r="P8">
-        <v>0.189057382653236</v>
+        <v>0.1845693827684028</v>
       </c>
       <c r="Q8">
-        <v>551.0694514328738</v>
+        <v>735.1303580095298</v>
       </c>
       <c r="R8">
-        <v>551.0694514328738</v>
+        <v>6616.173222085768</v>
       </c>
       <c r="S8">
-        <v>0.08539987684881867</v>
+        <v>0.0992293586293642</v>
       </c>
       <c r="T8">
-        <v>0.08539987684881867</v>
+        <v>0.1161428771995331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.0452761067518</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H9">
-        <v>31.0452761067518</v>
+        <v>118.481473</v>
       </c>
       <c r="I9">
-        <v>0.4517140544860756</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J9">
-        <v>0.4517140544860756</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.8251996305674</v>
+        <v>38.59874866666667</v>
       </c>
       <c r="N9">
-        <v>33.8251996305674</v>
+        <v>115.796246</v>
       </c>
       <c r="O9">
-        <v>0.3602659353245709</v>
+        <v>0.3821917814752466</v>
       </c>
       <c r="P9">
-        <v>0.3602659353245709</v>
+        <v>0.3827345934622813</v>
       </c>
       <c r="Q9">
-        <v>1050.112661896964</v>
+        <v>1524.412199327818</v>
       </c>
       <c r="R9">
-        <v>1050.112661896964</v>
+        <v>13719.70979395036</v>
       </c>
       <c r="S9">
-        <v>0.1627371863386802</v>
+        <v>0.2057681922368888</v>
       </c>
       <c r="T9">
-        <v>0.1627371863386802</v>
+        <v>0.2408411201346493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.0452761067518</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H10">
-        <v>31.0452761067518</v>
+        <v>118.481473</v>
       </c>
       <c r="I10">
-        <v>0.4517140544860756</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J10">
-        <v>0.4517140544860756</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.3138222172146</v>
+        <v>42.331515</v>
       </c>
       <c r="N10">
-        <v>42.3138222172146</v>
+        <v>126.994545</v>
       </c>
       <c r="O10">
-        <v>0.4506766820221931</v>
+        <v>0.4191523738272861</v>
       </c>
       <c r="P10">
-        <v>0.4506766820221931</v>
+        <v>0.4197476794930156</v>
       </c>
       <c r="Q10">
-        <v>1313.644293865436</v>
+        <v>1671.833417173865</v>
       </c>
       <c r="R10">
-        <v>1313.644293865436</v>
+        <v>15046.50075456479</v>
       </c>
       <c r="S10">
-        <v>0.2035769912985767</v>
+        <v>0.2256674015891347</v>
       </c>
       <c r="T10">
-        <v>0.2035769912985767</v>
+        <v>0.2641321245318274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>39.49382433333334</v>
+      </c>
+      <c r="H11">
+        <v>118.481473</v>
+      </c>
+      <c r="I11">
+        <v>0.5383898927460736</v>
+      </c>
+      <c r="J11">
+        <v>0.6292640494185805</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.4296995</v>
+      </c>
+      <c r="N11">
+        <v>0.859399</v>
+      </c>
+      <c r="O11">
+        <v>0.004254739417131607</v>
+      </c>
+      <c r="P11">
+        <v>0.002840521504357672</v>
+      </c>
+      <c r="Q11">
+        <v>16.97047656912117</v>
+      </c>
+      <c r="R11">
+        <v>101.822859414727</v>
+      </c>
+      <c r="S11">
+        <v>0.002290708698451978</v>
+      </c>
+      <c r="T11">
+        <v>0.001787438064292667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.150909</v>
+      </c>
+      <c r="I12">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J12">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.019373</v>
+      </c>
+      <c r="N12">
+        <v>3.058119</v>
+      </c>
+      <c r="O12">
+        <v>0.01009348738795297</v>
+      </c>
+      <c r="P12">
+        <v>0.0101078227719427</v>
+      </c>
+      <c r="Q12">
+        <v>0.051277520019</v>
+      </c>
+      <c r="R12">
+        <v>0.461497680171</v>
+      </c>
+      <c r="S12">
+        <v>6.92154169413827E-06</v>
+      </c>
+      <c r="T12">
+        <v>8.101309714359686E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.150909</v>
+      </c>
+      <c r="I13">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J13">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.61380533333333</v>
+      </c>
+      <c r="N13">
+        <v>55.841416</v>
+      </c>
+      <c r="O13">
+        <v>0.1843076178923826</v>
+      </c>
+      <c r="P13">
+        <v>0.1845693827684028</v>
+      </c>
+      <c r="Q13">
+        <v>0.9363302496826664</v>
+      </c>
+      <c r="R13">
+        <v>8.426972247143999</v>
+      </c>
+      <c r="S13">
+        <v>0.0001263877203940461</v>
+      </c>
+      <c r="T13">
+        <v>0.0001479303473489424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.150909</v>
+      </c>
+      <c r="I14">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J14">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>38.59874866666667</v>
+      </c>
+      <c r="N14">
+        <v>115.796246</v>
+      </c>
+      <c r="O14">
+        <v>0.3821917814752466</v>
+      </c>
+      <c r="P14">
+        <v>0.3827345934622813</v>
+      </c>
+      <c r="Q14">
+        <v>1.941632854179333</v>
+      </c>
+      <c r="R14">
+        <v>17.474695687614</v>
+      </c>
+      <c r="S14">
+        <v>0.0002620854664954803</v>
+      </c>
+      <c r="T14">
+        <v>0.0003067576025021211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.150909</v>
+      </c>
+      <c r="I15">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J15">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>42.331515</v>
+      </c>
+      <c r="N15">
+        <v>126.994545</v>
+      </c>
+      <c r="O15">
+        <v>0.4191523738272861</v>
+      </c>
+      <c r="P15">
+        <v>0.4197476794930156</v>
+      </c>
+      <c r="Q15">
+        <v>2.129402199045</v>
+      </c>
+      <c r="R15">
+        <v>19.164619791405</v>
+      </c>
+      <c r="S15">
+        <v>0.0002874309463253781</v>
+      </c>
+      <c r="T15">
+        <v>0.0003364231872857754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.150909</v>
+      </c>
+      <c r="I16">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J16">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.4296995</v>
+      </c>
+      <c r="N16">
+        <v>0.859399</v>
+      </c>
+      <c r="O16">
+        <v>0.004254739417131607</v>
+      </c>
+      <c r="P16">
+        <v>0.002840521504357672</v>
+      </c>
+      <c r="Q16">
+        <v>0.0216151739485</v>
+      </c>
+      <c r="R16">
+        <v>0.129691043691</v>
+      </c>
+      <c r="S16">
+        <v>2.917659193641942E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.276647006611253E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.7805215</v>
+      </c>
+      <c r="H17">
+        <v>63.561043</v>
+      </c>
+      <c r="I17">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J17">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.019373</v>
+      </c>
+      <c r="N17">
+        <v>3.058119</v>
+      </c>
+      <c r="O17">
+        <v>0.01009348738795297</v>
+      </c>
+      <c r="P17">
+        <v>0.0101078227719427</v>
+      </c>
+      <c r="Q17">
+        <v>32.39620554301951</v>
+      </c>
+      <c r="R17">
+        <v>194.377233258117</v>
+      </c>
+      <c r="S17">
+        <v>0.004372904292461836</v>
+      </c>
+      <c r="T17">
+        <v>0.003412173529151566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>31.7805215</v>
+      </c>
+      <c r="H18">
+        <v>63.561043</v>
+      </c>
+      <c r="I18">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J18">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.61380533333333</v>
+      </c>
+      <c r="N18">
+        <v>55.841416</v>
+      </c>
+      <c r="O18">
+        <v>0.1843076178923826</v>
+      </c>
+      <c r="P18">
+        <v>0.1845693827684028</v>
+      </c>
+      <c r="Q18">
+        <v>591.5564405928146</v>
+      </c>
+      <c r="R18">
+        <v>3549.338643556888</v>
+      </c>
+      <c r="S18">
+        <v>0.07984946554517564</v>
+      </c>
+      <c r="T18">
+        <v>0.06230647058062185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>31.7805215</v>
+      </c>
+      <c r="H19">
+        <v>63.561043</v>
+      </c>
+      <c r="I19">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J19">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>38.59874866666667</v>
+      </c>
+      <c r="N19">
+        <v>115.796246</v>
+      </c>
+      <c r="O19">
+        <v>0.3821917814752466</v>
+      </c>
+      <c r="P19">
+        <v>0.3827345934622813</v>
+      </c>
+      <c r="Q19">
+        <v>1226.688361874096</v>
+      </c>
+      <c r="R19">
+        <v>7360.130171244577</v>
+      </c>
+      <c r="S19">
+        <v>0.1655808361886397</v>
+      </c>
+      <c r="T19">
+        <v>0.1292025867457489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.7805215</v>
+      </c>
+      <c r="H20">
+        <v>63.561043</v>
+      </c>
+      <c r="I20">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J20">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>42.331515</v>
+      </c>
+      <c r="N20">
+        <v>126.994545</v>
+      </c>
+      <c r="O20">
+        <v>0.4191523738272861</v>
+      </c>
+      <c r="P20">
+        <v>0.4197476794930156</v>
+      </c>
+      <c r="Q20">
+        <v>1345.317622585073</v>
+      </c>
+      <c r="R20">
+        <v>8071.905735510435</v>
+      </c>
+      <c r="S20">
+        <v>0.1815936498709624</v>
+      </c>
+      <c r="T20">
+        <v>0.1416973717489893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.7805215</v>
+      </c>
+      <c r="H21">
+        <v>63.561043</v>
+      </c>
+      <c r="I21">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J21">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.4296995</v>
+      </c>
+      <c r="N21">
+        <v>0.859399</v>
+      </c>
+      <c r="O21">
+        <v>0.004254739417131607</v>
+      </c>
+      <c r="P21">
+        <v>0.002840521504357672</v>
+      </c>
+      <c r="Q21">
+        <v>13.65607419828925</v>
+      </c>
+      <c r="R21">
+        <v>54.624296793157</v>
+      </c>
+      <c r="S21">
+        <v>0.001843324070795189</v>
+      </c>
+      <c r="T21">
+        <v>0.0009588961445840815</v>
       </c>
     </row>
   </sheetData>
